--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\king2\Documents\Sam Docs\Python\Data Apps\Preferred Pronounce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB74B164-120D-41A2-B816-AB813EB46183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D87C26F-C9A1-42DC-ACCA-8ABF055D891C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A7134671-C15C-4531-A6D4-3327DA0B4BB1}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A52CD65-A2BF-4AC2-8075-EA939B042110}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,12 +441,45 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45985</v>
+        <v>45967</v>
       </c>
       <c r="B2">
         <v>1000</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45975</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45981</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
         <v>260</v>
       </c>
     </row>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\king2\Documents\Sam Docs\Python\Data Apps\Preferred Pronounce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D87C26F-C9A1-42DC-ACCA-8ABF055D891C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262FBE4D-87ED-4C7C-99D5-1A1F61C170D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A7134671-C15C-4531-A6D4-3327DA0B4BB1}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A52CD65-A2BF-4AC2-8075-EA939B042110}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,7 +444,7 @@
         <v>45967</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -452,34 +452,45 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45975</v>
+        <v>45968</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="C3">
-        <v>230</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45981</v>
+        <v>45975</v>
       </c>
       <c r="B4">
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45985</v>
+        <v>45981</v>
       </c>
       <c r="B5">
         <v>1000</v>
       </c>
       <c r="C5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
         <v>260</v>
       </c>
     </row>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\king2\Documents\Sam Docs\Python\Data Apps\Preferred Pronounce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262FBE4D-87ED-4C7C-99D5-1A1F61C170D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68027A83-CE54-4045-BDAD-543D5F226645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A7134671-C15C-4531-A6D4-3327DA0B4BB1}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{A7134671-C15C-4531-A6D4-3327DA0B4BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>The Micros</t>
+  </si>
+  <si>
+    <t>Total Hands</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A52CD65-A2BF-4AC2-8075-EA939B042110}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +431,7 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45967</v>
       </c>
@@ -450,7 +456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45968</v>
       </c>
@@ -461,7 +467,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45975</v>
       </c>
@@ -472,7 +478,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45981</v>
       </c>
@@ -483,15 +489,106 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45985</v>
+        <v>45984</v>
       </c>
       <c r="B6">
         <v>1000</v>
       </c>
       <c r="C6">
         <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45963</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45994</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45995</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>229</v>
+      </c>
+      <c r="D11">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45996</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45997</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45998</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\king2\Documents\Sam Docs\Python\Data Apps\Preferred Pronounce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68027A83-CE54-4045-BDAD-543D5F226645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3D6D58-2C83-44EB-949C-4B44F1BEBC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{A7134671-C15C-4531-A6D4-3327DA0B4BB1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7134671-C15C-4531-A6D4-3327DA0B4BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,11 +420,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A52CD65-A2BF-4AC2-8075-EA939B042110}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -524,7 +522,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45963</v>
+        <v>45992</v>
       </c>
       <c r="B9">
         <v>1000</v>
@@ -535,7 +533,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="B10">
         <v>1000</v>
@@ -546,7 +544,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="B11">
         <v>1000</v>
@@ -560,7 +558,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45996</v>
+        <v>45995</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -571,7 +569,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="B13">
         <v>1000</v>
@@ -582,7 +580,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="B14">
         <v>1000</v>
@@ -591,7 +589,41 @@
         <v>309</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45998</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\king2\Documents\Sam Docs\Python\Data Apps\Preferred Pronounce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3D6D58-2C83-44EB-949C-4B44F1BEBC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6068178E-EB8F-408C-AAA4-7D9F886B2379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7134671-C15C-4531-A6D4-3327DA0B4BB1}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{A7134671-C15C-4531-A6D4-3327DA0B4BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,9 +420,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A52CD65-A2BF-4AC2-8075-EA939B042110}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -619,7 +621,29 @@
         <v>1000</v>
       </c>
       <c r="C17">
-        <v>368</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="C19">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\king2\Documents\Sam Docs\Python\Data Apps\Preferred Pronounce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6068178E-EB8F-408C-AAA4-7D9F886B2379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC165FDB-1FC4-4119-81A5-A298CFEEDA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{A7134671-C15C-4531-A6D4-3327DA0B4BB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A7134671-C15C-4531-A6D4-3327DA0B4BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,11 +420,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A52CD65-A2BF-4AC2-8075-EA939B042110}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -646,6 +644,39 @@
         <v>487</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>46003</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="C20">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>46004</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>46005</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="C22">
+        <v>755</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\king2\Documents\Sam Docs\Python\Data Apps\Preferred Pronounce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d5cbc24d1a217bff/Poker/Bankroll/stang-gang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC165FDB-1FC4-4119-81A5-A298CFEEDA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DC165FDB-1FC4-4119-81A5-A298CFEEDA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09129A11-E8D6-4F40-AA83-700A740FB69D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A7134671-C15C-4531-A6D4-3327DA0B4BB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7134671-C15C-4531-A6D4-3327DA0B4BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Total Hands</t>
+  </si>
+  <si>
+    <t>NL100</t>
+  </si>
+  <si>
+    <t>NL40</t>
+  </si>
+  <si>
+    <t>Stake</t>
   </si>
 </sst>
 </file>
@@ -101,6 +110,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,16 +433,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A52CD65-A2BF-4AC2-8075-EA939B042110}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +457,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45967</v>
       </c>
@@ -453,8 +471,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45968</v>
       </c>
@@ -464,8 +485,11 @@
       <c r="C3">
         <v>-20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45975</v>
       </c>
@@ -475,8 +499,11 @@
       <c r="C4">
         <v>230</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45981</v>
       </c>
@@ -486,8 +513,11 @@
       <c r="C5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45984</v>
       </c>
@@ -497,8 +527,11 @@
       <c r="C6">
         <v>260</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45985</v>
       </c>
@@ -508,8 +541,11 @@
       <c r="C7">
         <v>223</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45986</v>
       </c>
@@ -519,8 +555,11 @@
       <c r="C8">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45992</v>
       </c>
@@ -530,8 +569,11 @@
       <c r="C9">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45993</v>
       </c>
@@ -541,8 +583,11 @@
       <c r="C10">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45994</v>
       </c>
@@ -552,11 +597,11 @@
       <c r="C11">
         <v>229</v>
       </c>
-      <c r="D11">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45995</v>
       </c>
@@ -566,8 +611,11 @@
       <c r="C12">
         <v>224</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45996</v>
       </c>
@@ -577,8 +625,11 @@
       <c r="C13">
         <v>194</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45997</v>
       </c>
@@ -588,8 +639,11 @@
       <c r="C14">
         <v>309</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45998</v>
       </c>
@@ -599,8 +653,11 @@
       <c r="C15">
         <v>282</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45999</v>
       </c>
@@ -610,8 +667,11 @@
       <c r="C16">
         <v>275</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>46000</v>
       </c>
@@ -621,8 +681,11 @@
       <c r="C17">
         <v>391</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>46001</v>
       </c>
@@ -632,8 +695,11 @@
       <c r="C18">
         <v>228</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>46002</v>
       </c>
@@ -643,8 +709,14 @@
       <c r="C19">
         <v>487</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>5000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>46003</v>
       </c>
@@ -654,8 +726,11 @@
       <c r="C20">
         <v>583</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>46004</v>
       </c>
@@ -665,8 +740,11 @@
       <c r="C21">
         <v>648</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46005</v>
       </c>
@@ -675,6 +753,211 @@
       </c>
       <c r="C22">
         <v>755</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>46013</v>
+      </c>
+      <c r="B23">
+        <v>1000</v>
+      </c>
+      <c r="C23">
+        <v>925</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>46033</v>
+      </c>
+      <c r="B24">
+        <v>1000</v>
+      </c>
+      <c r="C24">
+        <v>750</v>
+      </c>
+      <c r="D24">
+        <v>10000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B25">
+        <v>1000</v>
+      </c>
+      <c r="C25">
+        <v>450</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>46050</v>
+      </c>
+      <c r="B26">
+        <v>1000</v>
+      </c>
+      <c r="C26">
+        <v>844</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>46052</v>
+      </c>
+      <c r="B27">
+        <v>1000</v>
+      </c>
+      <c r="C27">
+        <v>1088</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B28">
+        <v>1000</v>
+      </c>
+      <c r="C28">
+        <v>987</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B29">
+        <v>1000</v>
+      </c>
+      <c r="C29">
+        <v>697</v>
+      </c>
+      <c r="D29">
+        <v>15000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B30">
+        <v>1000</v>
+      </c>
+      <c r="C30">
+        <v>825</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B31">
+        <v>1000</v>
+      </c>
+      <c r="C31">
+        <v>929</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B32">
+        <v>1000</v>
+      </c>
+      <c r="C32">
+        <v>903</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B33">
+        <v>1000</v>
+      </c>
+      <c r="C33">
+        <v>1526</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>46060</v>
+      </c>
+      <c r="B34">
+        <v>1000</v>
+      </c>
+      <c r="C34">
+        <v>1767</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>46061</v>
+      </c>
+      <c r="B35">
+        <v>1000</v>
+      </c>
+      <c r="C35">
+        <v>1852</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B36">
+        <v>1000</v>
+      </c>
+      <c r="C36">
+        <v>2266</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d5cbc24d1a217bff/Poker/Bankroll/stang-gang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DC165FDB-1FC4-4119-81A5-A298CFEEDA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09129A11-E8D6-4F40-AA83-700A740FB69D}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{DC165FDB-1FC4-4119-81A5-A298CFEEDA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057D2BFF-A66A-4CE6-AAFA-6D0F7FCF26FD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7134671-C15C-4531-A6D4-3327DA0B4BB1}"/>
   </bookViews>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A52CD65-A2BF-4AC2-8075-EA939B042110}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,9 +479,6 @@
       <c r="A3" s="1">
         <v>45968</v>
       </c>
-      <c r="B3">
-        <v>850</v>
-      </c>
       <c r="C3">
         <v>-20</v>
       </c>
@@ -507,9 +504,6 @@
       <c r="A5" s="1">
         <v>45981</v>
       </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
       <c r="C5">
         <v>60</v>
       </c>
@@ -521,9 +515,6 @@
       <c r="A6" s="1">
         <v>45984</v>
       </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
       <c r="C6">
         <v>260</v>
       </c>
@@ -535,9 +526,6 @@
       <c r="A7" s="1">
         <v>45985</v>
       </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
       <c r="C7">
         <v>223</v>
       </c>
@@ -549,9 +537,6 @@
       <c r="A8" s="1">
         <v>45986</v>
       </c>
-      <c r="B8">
-        <v>1000</v>
-      </c>
       <c r="C8">
         <v>73</v>
       </c>
@@ -563,9 +548,6 @@
       <c r="A9" s="1">
         <v>45992</v>
       </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
       <c r="C9">
         <v>53</v>
       </c>
@@ -577,9 +559,6 @@
       <c r="A10" s="1">
         <v>45993</v>
       </c>
-      <c r="B10">
-        <v>1000</v>
-      </c>
       <c r="C10">
         <v>151</v>
       </c>
@@ -591,9 +570,6 @@
       <c r="A11" s="1">
         <v>45994</v>
       </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
       <c r="C11">
         <v>229</v>
       </c>
@@ -605,9 +581,6 @@
       <c r="A12" s="1">
         <v>45995</v>
       </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
       <c r="C12">
         <v>224</v>
       </c>
@@ -619,9 +592,6 @@
       <c r="A13" s="1">
         <v>45996</v>
       </c>
-      <c r="B13">
-        <v>1000</v>
-      </c>
       <c r="C13">
         <v>194</v>
       </c>
@@ -633,9 +603,6 @@
       <c r="A14" s="1">
         <v>45997</v>
       </c>
-      <c r="B14">
-        <v>1000</v>
-      </c>
       <c r="C14">
         <v>309</v>
       </c>
@@ -647,9 +614,6 @@
       <c r="A15" s="1">
         <v>45998</v>
       </c>
-      <c r="B15">
-        <v>1000</v>
-      </c>
       <c r="C15">
         <v>282</v>
       </c>
@@ -661,9 +625,6 @@
       <c r="A16" s="1">
         <v>45999</v>
       </c>
-      <c r="B16">
-        <v>1000</v>
-      </c>
       <c r="C16">
         <v>275</v>
       </c>
@@ -675,9 +636,6 @@
       <c r="A17" s="1">
         <v>46000</v>
       </c>
-      <c r="B17">
-        <v>1000</v>
-      </c>
       <c r="C17">
         <v>391</v>
       </c>
@@ -689,9 +647,6 @@
       <c r="A18" s="1">
         <v>46001</v>
       </c>
-      <c r="B18">
-        <v>1000</v>
-      </c>
       <c r="C18">
         <v>228</v>
       </c>
@@ -703,9 +658,6 @@
       <c r="A19" s="1">
         <v>46002</v>
       </c>
-      <c r="B19">
-        <v>1000</v>
-      </c>
       <c r="C19">
         <v>487</v>
       </c>
@@ -720,9 +672,6 @@
       <c r="A20" s="1">
         <v>46003</v>
       </c>
-      <c r="B20">
-        <v>1000</v>
-      </c>
       <c r="C20">
         <v>583</v>
       </c>
@@ -734,9 +683,6 @@
       <c r="A21" s="1">
         <v>46004</v>
       </c>
-      <c r="B21">
-        <v>1000</v>
-      </c>
       <c r="C21">
         <v>648</v>
       </c>
@@ -748,9 +694,6 @@
       <c r="A22" s="1">
         <v>46005</v>
       </c>
-      <c r="B22">
-        <v>1000</v>
-      </c>
       <c r="C22">
         <v>755</v>
       </c>
@@ -762,9 +705,6 @@
       <c r="A23" s="1">
         <v>46013</v>
       </c>
-      <c r="B23">
-        <v>1000</v>
-      </c>
       <c r="C23">
         <v>925</v>
       </c>
@@ -776,9 +716,6 @@
       <c r="A24" s="1">
         <v>46033</v>
       </c>
-      <c r="B24">
-        <v>1000</v>
-      </c>
       <c r="C24">
         <v>750</v>
       </c>
@@ -793,9 +730,6 @@
       <c r="A25" s="1">
         <v>46042</v>
       </c>
-      <c r="B25">
-        <v>1000</v>
-      </c>
       <c r="C25">
         <v>450</v>
       </c>
@@ -807,9 +741,6 @@
       <c r="A26" s="1">
         <v>46050</v>
       </c>
-      <c r="B26">
-        <v>1000</v>
-      </c>
       <c r="C26">
         <v>844</v>
       </c>
@@ -821,9 +752,6 @@
       <c r="A27" s="1">
         <v>46052</v>
       </c>
-      <c r="B27">
-        <v>1000</v>
-      </c>
       <c r="C27">
         <v>1088</v>
       </c>
@@ -835,9 +763,6 @@
       <c r="A28" s="1">
         <v>46054</v>
       </c>
-      <c r="B28">
-        <v>1000</v>
-      </c>
       <c r="C28">
         <v>987</v>
       </c>
@@ -849,9 +774,6 @@
       <c r="A29" s="1">
         <v>46055</v>
       </c>
-      <c r="B29">
-        <v>1000</v>
-      </c>
       <c r="C29">
         <v>697</v>
       </c>
@@ -866,9 +788,6 @@
       <c r="A30" s="1">
         <v>46056</v>
       </c>
-      <c r="B30">
-        <v>1000</v>
-      </c>
       <c r="C30">
         <v>825</v>
       </c>
@@ -880,9 +799,6 @@
       <c r="A31" s="1">
         <v>46057</v>
       </c>
-      <c r="B31">
-        <v>1000</v>
-      </c>
       <c r="C31">
         <v>929</v>
       </c>
@@ -894,9 +810,6 @@
       <c r="A32" s="1">
         <v>46058</v>
       </c>
-      <c r="B32">
-        <v>1000</v>
-      </c>
       <c r="C32">
         <v>903</v>
       </c>
@@ -908,9 +821,6 @@
       <c r="A33" s="1">
         <v>46059</v>
       </c>
-      <c r="B33">
-        <v>1000</v>
-      </c>
       <c r="C33">
         <v>1526</v>
       </c>
@@ -922,9 +832,6 @@
       <c r="A34" s="1">
         <v>46060</v>
       </c>
-      <c r="B34">
-        <v>1000</v>
-      </c>
       <c r="C34">
         <v>1767</v>
       </c>
@@ -935,9 +842,6 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>46061</v>
-      </c>
-      <c r="B35">
-        <v>1000</v>
       </c>
       <c r="C35">
         <v>1852</v>
